--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,6 +550,20 @@
   </si>
   <si>
     <t>一个左右滑动的listview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YwExm18w-qk9bJVNdDP0NA</t>
+  </si>
+  <si>
+    <t>android 值得看的书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/rw0i12SY7Zit5LM1ISfJyw</t>
+  </si>
+  <si>
+    <t>上拉下拉的简单recyclerview封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1539,6 +1553,22 @@
       </c>
       <c r="B86" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,42 @@
   <si>
     <t>上拉下拉的简单recyclerview封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 基本算法，其实基本没遇到和难的算法，都是给定一个实际场景然后写个小算法，比如叫把 String 的 IP 地址转成 int 值，IP 是 192.168.0.1 这种，对应 int 值是 19216801。</t>
+  </si>
+  <si>
+    <t>2. Java 中常用类的源码，如 常用的数据结构（HashMap问的比较多）、String、StringBuilder</t>
+  </si>
+  <si>
+    <t>等等，可以看看 《Thinking in Java 》</t>
+  </si>
+  <si>
+    <t>3. Java 虚拟机、Art、Dalvik 他们的区别。</t>
+  </si>
+  <si>
+    <t>4. 性能优化，这是个很大的点，但是基本是必问的。</t>
+  </si>
+  <si>
+    <t>5. Java GC 原理、GC Root 的概念、Java 引用类型。</t>
+  </si>
+  <si>
+    <t>6. Android 的基础知识，强烈建议理解性的阅读《Android 艺术探讨》，很多问题的答案都可以在这本书上找到，像 View 绘制流程、事件分发流程、Handler 机制、IntentService、HandlerThread 这些可以边看边跟源码边做笔记。</t>
+  </si>
+  <si>
+    <t>7. 多线程中，线程安全。</t>
+  </si>
+  <si>
+    <t>8. 线程池，需要理解里面各种参数的含义，适用场景。</t>
+  </si>
+  <si>
+    <t>9. 进程间通信、线程间通信。</t>
+  </si>
+  <si>
+    <t>10. JSBridge 相关的东西。</t>
+  </si>
+  <si>
+    <t>11. 自己在项目中用到的东西，既然写在简历上了就要知道它的原理，越清楚越好</t>
   </si>
 </sst>
 </file>
@@ -706,7 +742,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +787,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1049,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1589,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1615,7 +1654,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="127.2" customHeight="1">
+    <row r="4" spans="1:3" ht="56.4" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>110</v>
       </c>
@@ -1623,7 +1662,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="107.4" customHeight="1">
+    <row r="5" spans="1:3" ht="52.2" customHeight="1">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -1631,7 +1670,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="154.80000000000001" customHeight="1">
+    <row r="6" spans="1:3" ht="56.4" customHeight="1">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -1640,6 +1679,66 @@
       </c>
       <c r="C6" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.399999999999999">
+      <c r="A7" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30.6">
+      <c r="A13" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="15" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,12 +602,144 @@
   <si>
     <t>11. 自己在项目中用到的东西，既然写在简历上了就要知道它的原理，越清楚越好</t>
   </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/QVOYF2nfoWMCbM5YsxQgRQ</t>
+  </si>
+  <si>
+    <t>性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rxjava学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/xcc3641/SeeWeather</t>
+  </si>
+  <si>
+    <t>天气预报 rxjava+mvp+retrofit+glide+。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>40*40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的图片需要多少内存</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一点又是由ARGB色组成，每个色素占4个Byte，   =40*40*4Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jianshu.com/p/464b3572c6bd</t>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>svn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区别</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 .SVN属于集中化的版本控制系统，有个不太精确的比喻:SVN =版本控制+备份服务器。  SVN使用起来有点像是档案仓库的感觉，支持并行读写文件，支持代码的版本化管理，功能包括取出、导入、更新、分支、改名、还原、合并等。Git是一个分布式版本控制系统，操作命令包括：clone，pull，push,branch ,merge ,push,rebase，Git擅长的是程序代码的版本化管理。  2.GIT跟SVN一样有自己的集中式版本库或服务器。但，GIT更倾向于被使用于分布式模式，也就是每个开发人员从中心版本库/服务器上chect out代码后会在自己的机器上克隆一个自己的版本库。可以这样说，如果你被困在一个不能连接网络的地方时，就像在飞机上，地下室，电梯里等，你仍然能够提交文件，查看历史版本记录，创建项目分支，等。对一些人来说，这好像没多大用处，但当你突然遇到没有网络的环境时，这个将解决你的大麻烦。  3.GIT把内容按元数据方式存储，而SVN是按文件所有的资源控制系统都是把文件的元信息隐藏在一个类似.svn,.cvs等的文件夹里。如果你把.git目录的体积大小跟.svn比较，你会发现它们差距很大。因为,.git目录是处于你的机器上的一个克隆版的版本库，它拥有中心版本库上所有的东西，例如标签，分支，版本记录等。  4.分支在SVN中一点不特别，就是版本库中的另外的一个目录。如果你想知道是否合并了一个分支，你需要手工运行像这样的命令svn propget svn:mergeinfo，来确认代码是否被合并。然而，处理GIT的分支却是相当的简单和有趣。你可以从同一个工作目录下快速的在几个分支间切换。你很容易发现未被合并的分支，你能简单而快捷的合并这些文件。  5.GIT没有一个全局的版本号，而SVN有目前为止这是跟SVN相比GIT缺少的最大的一个特征。你也知道，SVN的版本号实际是任何一个相应时间的源代码快照。我认为它是从CVS进化到SVN的最大的一个突破。因为GIT和SVN从概念上就不同，我不知道GIT里是什么特征与之对应。如果你有任何的线索，请在评论里奉献出来与大家共享。  6.GIT的内容完整性要优于SVN：GIT的内容存储使用的是/哈希算法能确保代码内容的完整性，确保在遇到磁盘故障和网络问题时降低对版本库的破坏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static变量：对于静态变量在内存中只有一个拷贝（节省内存），JVM只为静态分配一次内存，在加载类的过程中完成静态变量的内存分配，可用类名直接访问（方便），当然也可以通过对象来访问（但是这是不推荐的）。                                                                                                      Static方法：由于静态方法不依赖于任何对象就可以进行访问，因此对于静态方法来说，是没有this的，因为它不依附于任何对象，既然都没有对象，就谈不上this了。并且由于这个特性，在静态方法中不能访问类的非静态成员变量和非静态成员方法，因为非静态成员方法/变量都是必须依赖具体的对象才能够被调用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +845,13 @@
       <color rgb="FF3E3E3E"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3E3E3E"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1086,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1608,6 +1747,30 @@
       </c>
       <c r="B89" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1628,16 +1791,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="77.6640625" customWidth="1"/>
-    <col min="2" max="2" width="68.109375" customWidth="1"/>
+    <col min="2" max="2" width="96.5546875" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1731,14 +1894,46 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="307.2" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="87" customHeight="1">
+      <c r="A23" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="174">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,9 +396,6 @@
   <si>
     <t>炫酷的点击按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/jfeinstein10/SlidingMenu</t>
   </si>
   <si>
     <t>侧滑菜单（支持左右）</t>
@@ -734,12 +731,104 @@
     <t>static变量：对于静态变量在内存中只有一个拷贝（节省内存），JVM只为静态分配一次内存，在加载类的过程中完成静态变量的内存分配，可用类名直接访问（方便），当然也可以通过对象来访问（但是这是不推荐的）。                                                                                                      Static方法：由于静态方法不依赖于任何对象就可以进行访问，因此对于静态方法来说，是没有this的，因为它不依附于任何对象，既然都没有对象，就谈不上this了。并且由于这个特性，在静态方法中不能访问类的非静态成员变量和非静态成员方法，因为非静态成员方法/变量都是必须依赖具体的对象才能够被调用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/X615qrAXzVXVlsYtmXTj1w</t>
+  </si>
+  <si>
+    <t>微信朋友圈照片九宫格和微信聊天图片预览。+循环Banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/jfeinstein10/SlidingMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/2c5aIgGkOTCHbA7fCoT3Ww</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MVP+RxJava2+Retrofit2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的资讯类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>App//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>练手项目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/RCwValRyk96DPc0qLrUCfQ</t>
+  </si>
+  <si>
+    <t>viewpaper轮播图 以及一个仿miui日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/OCNYang/PageTransformerHelp</t>
+  </si>
+  <si>
+    <t>viewpaper的轮播效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/fe6efe2f5978</t>
+  </si>
+  <si>
+    <t>仿新版微信首页下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/renjianan/SimpleBrowser</t>
+  </si>
+  <si>
+    <t>wanandroid.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,12 +905,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF24292E"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -854,6 +937,26 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0052FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF0052FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -863,12 +966,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE7E7EB"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -881,7 +993,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,26 +1021,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1225,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1620,146 +1738,146 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="9" t="s">
         <v>94</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17.399999999999999">
       <c r="A68" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
         <v>96</v>
       </c>
-      <c r="B68" t="s">
-        <v>97</v>
-      </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="11" t="s">
-        <v>102</v>
+      <c r="A70" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="12" t="s">
         <v>103</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17.399999999999999">
       <c r="A72" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B93" t="s">
         <v>67</v>
@@ -1767,10 +1885,58 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18.600000000000001" thickBot="1">
+      <c r="A96" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="C101" s="17" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1783,9 +1949,10 @@
     <hyperlink ref="B62" r:id="rId5"/>
     <hyperlink ref="B63" r:id="rId6"/>
     <hyperlink ref="A84" r:id="rId7" display="http://www.cnblogs.com/yuhanghzsd/p/5466846.html"/>
+    <hyperlink ref="B66" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1793,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1806,134 +1973,134 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="156.6">
+      <c r="A3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="156.6">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="56.4" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="56.4" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="52.2" customHeight="1">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="56.4" customHeight="1">
       <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="7" spans="1:3" ht="20.399999999999999">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="15" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="15" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="15" t="s">
+    <row r="13" spans="1:3" ht="30.6">
+      <c r="A13" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30.6">
-      <c r="A13" s="15" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="15" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="15" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
         <v>154</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
+      <c r="B21" t="s">
         <v>156</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="307.2" customHeight="1">
+      <c r="A22" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="307.2" customHeight="1">
-      <c r="A22" s="15" t="s">
+      <c r="B22" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="10" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="87" customHeight="1">
+      <c r="A23" s="14" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="87" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="B23" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="178">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -822,6 +822,20 @@
   </si>
   <si>
     <t>wanandroid.com</t>
+  </si>
+  <si>
+    <t>https://github.com/burningcl/wechat_jump_hack</t>
+  </si>
+  <si>
+    <t>微信跳一跳java班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/lipangit/JieCaoVideoPlayer</t>
+  </si>
+  <si>
+    <t>一个轻量级的视频播放器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1343,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1935,8 +1949,22 @@
       </c>
     </row>
     <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" t="s">
+        <v>174</v>
+      </c>
       <c r="C101" s="17" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1950,9 +1978,10 @@
     <hyperlink ref="B63" r:id="rId6"/>
     <hyperlink ref="A84" r:id="rId7" display="http://www.cnblogs.com/yuhanghzsd/p/5466846.html"/>
     <hyperlink ref="B66" r:id="rId8"/>
+    <hyperlink ref="B102" r:id="rId9" display="https://link.jianshu.com/?t=https://github.com/lipangit/JieCaoVideoPlayer"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -835,6 +835,13 @@
   </si>
   <si>
     <t>一个轻量级的视频播放器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/CarGuo/GSYVideoPlayer</t>
+  </si>
+  <si>
+    <t>一个牛逼轻量级的视频播放器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1357,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1965,6 +1972,14 @@
       </c>
       <c r="B102" s="2" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,6 +843,18 @@
   <si>
     <t>一个牛逼轻量级的视频播放器</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手把手带你打造一个 Android 热修复框架</t>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/a7f11e0f3a2e</t>
+  </si>
+  <si>
+    <t>拼图滑块 创意验证码控件</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/sdfsdfdfa/article/details/79120665</t>
   </si>
 </sst>
 </file>
@@ -1364,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1980,6 +1992,22 @@
       </c>
       <c r="B103" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17.399999999999999">
+      <c r="A105" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -856,12 +856,18 @@
   <si>
     <t>http://blog.csdn.net/sdfsdfdfa/article/details/79120665</t>
   </si>
+  <si>
+    <t>https://github.com/idic779/monthweekmaterialcalendarview</t>
+  </si>
+  <si>
+    <t>仿小米日历 纵享丝滑切换的周月效果</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,6 +996,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1026,7 +1038,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,6 +1092,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1376,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2008,6 +2023,14 @@
       </c>
       <c r="B105" s="8" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="188">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -861,6 +861,13 @@
   </si>
   <si>
     <t>仿小米日历 纵享丝滑切换的周月效果</t>
+  </si>
+  <si>
+    <t>https://github.com/liumingmusic/react-native-full-example</t>
+  </si>
+  <si>
+    <t>React native 学习者的一个例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1391,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2031,6 +2038,14 @@
       </c>
       <c r="B106" s="18" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="200">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -867,6 +867,50 @@
   </si>
   <si>
     <t>React native 学习者的一个例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/zhangliangming/SeekBar</t>
+  </si>
+  <si>
+    <t>一个简单的进度栏加上歌词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgentWeb 是一个基于的 Android WebView ，极度容易使用以及功能强大的库 。详细使用请参照上面的 Sample 。</t>
+  </si>
+  <si>
+    <t>物理碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jbox2d.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Justson/AgentWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/youth5201314/banner</t>
+  </si>
+  <si>
+    <t>轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MiguelCatalan/MaterialSearchView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material风格的搜索view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/H07000223/FlycoTabLayout</t>
+  </si>
+  <si>
+    <t>炫酷的tablayout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1398,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2048,6 +2092,54 @@
         <v>186</v>
       </c>
     </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15">
+      <c r="A116" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>195</v>
+      </c>
+      <c r="B121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2060,9 +2152,12 @@
     <hyperlink ref="A84" r:id="rId7" display="http://www.cnblogs.com/yuhanghzsd/p/5466846.html"/>
     <hyperlink ref="B66" r:id="rId8"/>
     <hyperlink ref="B102" r:id="rId9" display="https://link.jianshu.com/?t=https://github.com/lipangit/JieCaoVideoPlayer"/>
+    <hyperlink ref="B118" r:id="rId10"/>
+    <hyperlink ref="B116" r:id="rId11"/>
+    <hyperlink ref="B122" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/资源列表.xlsx
+++ b/资源列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -912,6 +912,18 @@
   <si>
     <t>炫酷的tablayout</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐一个基于RecyclerView.LayoutManager的卡片滑动库:</t>
+  </si>
+  <si>
+    <t>https://github.com/JerryChan123/ReSwipeCard</t>
+  </si>
+  <si>
+    <t>小米日历的日期选择控件</t>
+  </si>
+  <si>
+    <t>https://github.com/ycuwq/DatePicker</t>
   </si>
 </sst>
 </file>
@@ -1442,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2138,6 +2150,22 @@
       </c>
       <c r="B123" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
